--- a/data/scheduling_DNN/predict/0.1/result17.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result17.xlsx
@@ -570,10 +570,10 @@
         <v>1.278625011444092</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.8782553672790527</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5814890265464783</v>
+        <v>0.1602958589792252</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9315309524536133</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.5830836892127991</v>
       </c>
       <c r="W3" t="n">
-        <v>0.07341776043176651</v>
+        <v>0.1214154958724976</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8728039264678955</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4771164655685425</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00246321246959269</v>
+        <v>0.1565685719251633</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8783209323883057</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.9784775972366333</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06691286712884903</v>
+        <v>0.01003135740756989</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9347138404846191</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4813321232795715</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1879402846097946</v>
+        <v>0.2055549770593643</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8745720386505127</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.4692119956016541</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2457459717988968</v>
+        <v>0.1643167585134506</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8714470863342285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.49364173412323</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1004449650645256</v>
+        <v>0.1427368819713593</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8679490089416504</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9335687756538391</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0630984827876091</v>
+        <v>0.004305953625589609</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9213850498199463</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.891200840473175</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05636065453290939</v>
+        <v>0.0009110865066759288</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8783540725708008</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.8861913084983826</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1953485310077667</v>
+        <v>6.142226629890501e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8560359477996826</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4978543519973755</v>
       </c>
       <c r="W12" t="n">
-        <v>0.001564019126817584</v>
+        <v>0.128294050693512</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8662741184234619</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.5829669237136841</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09682764858007431</v>
+        <v>0.08026296645402908</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9164319038391113</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.9427229166030884</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2121553421020508</v>
+        <v>0.0006912173703312874</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9046680927276611</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.4986053109169006</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1452508866786957</v>
+        <v>0.1648869812488556</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8792328834533691</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4848318696022034</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1811815202236176</v>
+        <v>0.1555521637201309</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9291579723358154</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4681693315505981</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2900064587593079</v>
+        <v>0.2125105261802673</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9192140102386475</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5992460250854492</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2334104925394058</v>
+        <v>0.1023795083165169</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8607621192932129</v>
       </c>
       <c r="V19" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4935907125473022</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1481204777956009</v>
+        <v>0.1348148435354233</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9078121185302734</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4693489670753479</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2225842177867889</v>
+        <v>0.1922499388456345</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>1.051532983779907</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.5005980730056763</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1636590212583542</v>
+        <v>0.3035292625427246</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.6805069446563721</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5310661792755127</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03105367720127106</v>
+        <v>0.02233254164457321</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5418510437011719</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4996540546417236</v>
       </c>
       <c r="W23" t="n">
-        <v>0.006765670143067837</v>
+        <v>0.0017805858515203</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5207180976867676</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.9514363408088684</v>
       </c>
       <c r="W24" t="n">
-        <v>0.004310617223381996</v>
+        <v>0.185518205165863</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5262298583984375</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9382985234260559</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004616640973836184</v>
+        <v>0.1698005795478821</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5306339263916016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4825158715248108</v>
       </c>
       <c r="W26" t="n">
-        <v>0.001799651072360575</v>
+        <v>0.002315347315743566</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5293750762939453</v>
       </c>
       <c r="V27" t="n">
-        <v>0.551807165145874</v>
+        <v>0.8772692680358887</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0005031985929235816</v>
+        <v>0.121030367910862</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5149459838867188</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9150087237358093</v>
       </c>
       <c r="W28" t="n">
-        <v>0.08822489529848099</v>
+        <v>0.1600501984357834</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5228018760681152</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.5781426429748535</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0003697244392242283</v>
+        <v>0.003062600502744317</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5388278961181641</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5282764434814453</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01062460895627737</v>
+        <v>0.0001113331527449191</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.514962911605835</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.8850935101509094</v>
       </c>
       <c r="W31" t="n">
-        <v>0.001957048196345568</v>
+        <v>0.1369966566562653</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5909121036529541</v>
       </c>
       <c r="V32" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.928613543510437</v>
       </c>
       <c r="W32" t="n">
-        <v>0.02656355500221252</v>
+        <v>0.1140422597527504</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.51580810546875</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.880649209022522</v>
       </c>
       <c r="W33" t="n">
-        <v>0.00339802005328238</v>
+        <v>0.1331090331077576</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5174050331115723</v>
       </c>
       <c r="V34" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5202422738075256</v>
       </c>
       <c r="W34" t="n">
-        <v>0.04304263740777969</v>
+        <v>8.049934876908083e-06</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.510145902633667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.874403178691864</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004362074192613363</v>
+        <v>0.1326833665370941</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5142719745635986</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4994294047355652</v>
       </c>
       <c r="W36" t="n">
-        <v>0.003654698142781854</v>
+        <v>0.0002203018811997026</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5140159130096436</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4711810946464539</v>
       </c>
       <c r="W37" t="n">
-        <v>0.001494064810685813</v>
+        <v>0.001834821654483676</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5164780616760254</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.5217162370681763</v>
       </c>
       <c r="W38" t="n">
-        <v>0.002510212827473879</v>
+        <v>2.743848199315835e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5160830020904541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.5146638154983521</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01164200343191624</v>
+        <v>2.014090568991378e-06</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5140771865844727</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5309813618659973</v>
       </c>
       <c r="W40" t="n">
-        <v>0.001559054013341665</v>
+        <v>0.0002857511281035841</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5185961723327637</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.9557090401649475</v>
       </c>
       <c r="W41" t="n">
-        <v>0.001817849464714527</v>
+        <v>0.1910676658153534</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.404655933380127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4990690946578979</v>
       </c>
       <c r="W42" t="n">
-        <v>0.02210640721023083</v>
+        <v>0.00891384482383728</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4719488620758057</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5192884802818298</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03278620541095734</v>
+        <v>0.002241039415821433</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3866188526153564</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.468265175819397</v>
       </c>
       <c r="W44" t="n">
-        <v>0.005162936635315418</v>
+        <v>0.006666122004389763</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3858962059020996</v>
       </c>
       <c r="V45" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4771302938461304</v>
       </c>
       <c r="W45" t="n">
-        <v>0.007750096265226603</v>
+        <v>0.008323659189045429</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3848860263824463</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.470756471157074</v>
       </c>
       <c r="W46" t="n">
-        <v>0.002626148285344243</v>
+        <v>0.007373733446002007</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3969569206237793</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.4974897503852844</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0002811671001836658</v>
+        <v>0.01010684948414564</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4113471508026123</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.8850846886634827</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0601702444255352</v>
+        <v>0.2244272530078888</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4282140731811523</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4705453515052795</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0008656865102238953</v>
+        <v>0.001791937160305679</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3858199119567871</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5210556983947754</v>
       </c>
       <c r="W50" t="n">
-        <v>0.01397125516086817</v>
+        <v>0.01828871853649616</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3868610858917236</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5134596228599548</v>
       </c>
       <c r="W51" t="n">
-        <v>0.006287334486842155</v>
+        <v>0.01602718979120255</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3860290050506592</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5259754061698914</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05848272517323494</v>
+        <v>0.01958499476313591</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3862721920013428</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.5118365287780762</v>
       </c>
       <c r="W53" t="n">
-        <v>0.03627481684088707</v>
+        <v>0.01576640270650387</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3878300189971924</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5837767720222473</v>
       </c>
       <c r="W54" t="n">
-        <v>0.08837544173002243</v>
+        <v>0.03839512914419174</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.8843445777893066</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02797129936516285</v>
+        <v>0.2484260648488998</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.409235954284668</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.945117712020874</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01971743069589138</v>
+        <v>0.2871692478656769</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863928318023682</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4772428870201111</v>
       </c>
       <c r="W57" t="n">
-        <v>0.005083813332021236</v>
+        <v>0.008253732696175575</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.582723081111908</v>
       </c>
       <c r="W58" t="n">
-        <v>0.05467980355024338</v>
+        <v>0.03820657730102539</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.5992440581321716</v>
       </c>
       <c r="W59" t="n">
-        <v>0.000141332988278009</v>
+        <v>0.04326484352350235</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4996165633201599</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02670479752123356</v>
+        <v>0.01224817242473364</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3869929313659668</v>
       </c>
       <c r="V61" t="n">
-        <v>0.624285101890564</v>
+        <v>0.8711172938346863</v>
       </c>
       <c r="W61" t="n">
-        <v>0.05630757287144661</v>
+        <v>0.2343764007091522</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9583940505981445</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.9003621935844421</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2732918858528137</v>
+        <v>0.003367696423083544</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9060430526733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.88432377576828</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0810767188668251</v>
+        <v>0.0004717269912362099</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8759150505065918</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4682413339614868</v>
       </c>
       <c r="W64" t="n">
-        <v>0.06317996233701706</v>
+        <v>0.1661978662014008</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8710899353027344</v>
       </c>
       <c r="V65" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5148488879203796</v>
       </c>
       <c r="W65" t="n">
-        <v>0.09175026416778564</v>
+        <v>0.1269076764583588</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.882378101348877</v>
       </c>
       <c r="V66" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.8844748139381409</v>
       </c>
       <c r="W66" t="n">
-        <v>0.05010455846786499</v>
+        <v>4.396203621581662e-06</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8734641075134277</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5573128461837769</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1719166934490204</v>
+        <v>0.0999516174197197</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8694069385528564</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.5349498391151428</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1693052798509598</v>
+        <v>0.1118615493178368</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.863152027130127</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5079798698425293</v>
       </c>
       <c r="W69" t="n">
-        <v>0.09762659668922424</v>
+        <v>0.1261472553014755</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8647668361663818</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5310304164886475</v>
       </c>
       <c r="W70" t="n">
-        <v>0.04314875602722168</v>
+        <v>0.1113799959421158</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8711988925933838</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4959250688552856</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1655063927173615</v>
+        <v>0.1408304423093796</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8940391540527344</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.9281513690948486</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1903402507305145</v>
+        <v>0.001163643202744424</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.865178108215332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.4948525428771973</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1361405104398727</v>
+        <v>0.1371410191059113</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8620350360870361</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5831455588340759</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1298019587993622</v>
+        <v>0.07777933776378632</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8610241413116455</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.9107319116592407</v>
       </c>
       <c r="W75" t="n">
-        <v>0.04102898761630058</v>
+        <v>0.002470862353220582</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8656890392303467</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4707649946212769</v>
       </c>
       <c r="W76" t="n">
-        <v>0.05798137933015823</v>
+        <v>0.1559650003910065</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8706119060516357</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.8904892802238464</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1016422361135483</v>
+        <v>0.0003951099934056401</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.4771996736526489</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1290711909532547</v>
+        <v>0.1486884355545044</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8727540969848633</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.527057945728302</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1907351464033127</v>
+        <v>0.1195058301091194</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8489360809326172</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5128287672996521</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0596122108399868</v>
+        <v>0.1129681244492531</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.857429027557373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5316235423088074</v>
       </c>
       <c r="W81" t="n">
-        <v>0.09563382714986801</v>
+        <v>0.1061492115259171</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5475618839263916</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.9636821746826172</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0284110065549612</v>
+        <v>0.1731560975313187</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5223798751831055</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.506615161895752</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01030382979661226</v>
+        <v>0.0002485261939000338</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5158839225769043</v>
       </c>
       <c r="V84" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4694169759750366</v>
       </c>
       <c r="W84" t="n">
-        <v>0.05350084602832794</v>
+        <v>0.002159177092835307</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5178000926971436</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.5043609738349915</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0001241152931470424</v>
+        <v>0.0001806099171517417</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5120930671691895</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5984378457069397</v>
       </c>
       <c r="W86" t="n">
-        <v>0.002443066798150539</v>
+        <v>0.007455420680344105</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5679559707641602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.476378470659256</v>
+        <v>0.5839601755142212</v>
       </c>
       <c r="W87" t="n">
-        <v>0.008386438712477684</v>
+        <v>0.0002561345754656941</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.517035961151123</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4771594405174255</v>
       </c>
       <c r="W88" t="n">
-        <v>0.001669405377469957</v>
+        <v>0.001590136904269457</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5192339420318604</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.9112749695777893</v>
       </c>
       <c r="W89" t="n">
-        <v>0.003791369963437319</v>
+        <v>0.1536961644887924</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V90" t="n">
-        <v>0.569115161895752</v>
+        <v>0.9373533129692078</v>
       </c>
       <c r="W90" t="n">
-        <v>0.002920986851677299</v>
+        <v>0.1783240288496017</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5332633852958679</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0002943714498542249</v>
+        <v>0.000142716002301313</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5186920166015625</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.5307148694992065</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0114530548453331</v>
+        <v>0.0001445489906473085</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5181910991668701</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.9639695882797241</v>
       </c>
       <c r="W93" t="n">
-        <v>0.002249761251732707</v>
+        <v>0.1987184584140778</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5129578113555908</v>
       </c>
       <c r="V94" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9501433968544006</v>
       </c>
       <c r="W94" t="n">
-        <v>0.005947692785412073</v>
+        <v>0.1911312341690063</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5182981491088867</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.5823687314987183</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01953170448541641</v>
+        <v>0.004105039406567812</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5157368183135986</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.4997346997261047</v>
       </c>
       <c r="W96" t="n">
-        <v>0.002523935865610838</v>
+        <v>0.0002560678112786263</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.517038106918335</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.8772801756858826</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0002328579284949228</v>
+        <v>0.12977434694767</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5660309791564941</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.9830254316329956</v>
       </c>
       <c r="W98" t="n">
-        <v>0.0002046021982096136</v>
+        <v>0.1738843768835068</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5193438529968262</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.8994984030723572</v>
       </c>
       <c r="W99" t="n">
-        <v>0.002695531351491809</v>
+        <v>0.1445174813270569</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5185110569000244</v>
       </c>
       <c r="V100" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5114023685455322</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0454430989921093</v>
+        <v>5.053345012129284e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5145349502563477</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4771793484687805</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003009292064234614</v>
+        <v>0.001395441009663045</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3960089683532715</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.8830731511116028</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1767266541719437</v>
+        <v>0.2372315227985382</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3945181369781494</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5307499170303345</v>
       </c>
       <c r="W103" t="n">
-        <v>0.001722653396427631</v>
+        <v>0.01855909824371338</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4094679355621338</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5034723281860352</v>
       </c>
       <c r="W104" t="n">
-        <v>0.02775980718433857</v>
+        <v>0.008836825378239155</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.402616024017334</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4770655035972595</v>
       </c>
       <c r="W105" t="n">
-        <v>0.02394914627075195</v>
+        <v>0.00554272485896945</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3881978988647461</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.8782081604003906</v>
       </c>
       <c r="W106" t="n">
-        <v>0.05353609099984169</v>
+        <v>0.2401100546121597</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3875870704650879</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.9291930198669434</v>
       </c>
       <c r="W107" t="n">
-        <v>0.05462835729122162</v>
+        <v>0.2933370172977448</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3868029117584229</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.8864433169364929</v>
       </c>
       <c r="W108" t="n">
-        <v>0.02772289514541626</v>
+        <v>0.2496405392885208</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3858330249786377</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.8694380521774292</v>
       </c>
       <c r="W109" t="n">
-        <v>0.03346220403909683</v>
+        <v>0.2338738292455673</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4380300045013428</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.910007119178772</v>
       </c>
       <c r="W110" t="n">
-        <v>2.970343075503479e-06</v>
+        <v>0.2227623909711838</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3926200866699219</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.8924139738082886</v>
       </c>
       <c r="W111" t="n">
-        <v>0.02589732594788074</v>
+        <v>0.2497939318418503</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4199950695037842</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.8762562870979309</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0002570339420344681</v>
+        <v>0.2081743031740189</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3880131244659424</v>
       </c>
       <c r="V113" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5041369795799255</v>
       </c>
       <c r="W113" t="n">
-        <v>0.03538873419165611</v>
+        <v>0.01348474994301796</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3906128406524658</v>
       </c>
       <c r="V114" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5811784863471985</v>
       </c>
       <c r="W114" t="n">
-        <v>0.121020495891571</v>
+        <v>0.03631526604294777</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.390388011932373</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9285501837730408</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002051704563200474</v>
+        <v>0.2896185219287872</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4383928775787354</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5359668731689453</v>
       </c>
       <c r="W116" t="n">
-        <v>5.603205408988288e-06</v>
+        <v>0.009520684368908405</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3909389972686768</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.9212793111801147</v>
       </c>
       <c r="W117" t="n">
-        <v>0.004447194281965494</v>
+        <v>0.2812608480453491</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4151778221130371</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4986934065818787</v>
       </c>
       <c r="W118" t="n">
-        <v>0.004383266903460026</v>
+        <v>0.00697485264390707</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3895719051361084</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4779194593429565</v>
       </c>
       <c r="W119" t="n">
-        <v>0.05513248592615128</v>
+        <v>0.007805290166288614</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3895649909973145</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9787747263908386</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0001217033859575167</v>
+        <v>0.3471681177616119</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.390326976776123</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.9433631300926208</v>
       </c>
       <c r="W121" t="n">
-        <v>0.05208202078938484</v>
+        <v>0.3058489859104156</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9526019096374512</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.8686724305152893</v>
       </c>
       <c r="W122" t="n">
-        <v>0.3164109587669373</v>
+        <v>0.007044157478958368</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9093990325927734</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5307928919792175</v>
       </c>
       <c r="W123" t="n">
-        <v>0.009454615414142609</v>
+        <v>0.1433426141738892</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8593389987945557</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4701910614967346</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1561617851257324</v>
+        <v>0.1514361202716827</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8695569038391113</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.9837548136711121</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05954243615269661</v>
+        <v>0.01304116286337376</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9181571006774902</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.4821152687072754</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2265262752771378</v>
+        <v>0.1901324838399887</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8750870227813721</v>
       </c>
       <c r="V127" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5014292001724243</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1616028845310211</v>
+        <v>0.1396201699972153</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8594310283660889</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.531137228012085</v>
       </c>
       <c r="W128" t="n">
-        <v>0.08258499205112457</v>
+        <v>0.1077768206596375</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8594059944152832</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4691775441169739</v>
       </c>
       <c r="W129" t="n">
-        <v>0.08041927218437195</v>
+        <v>0.1522782444953918</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9248340129852295</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5008255243301392</v>
       </c>
       <c r="W130" t="n">
-        <v>0.09065210074186325</v>
+        <v>0.1797831952571869</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.4691503643989563</v>
       </c>
       <c r="W131" t="n">
-        <v>0.04580150544643402</v>
+        <v>0.1549569368362427</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8653979301452637</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.5314670205116272</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1663396805524826</v>
+        <v>0.1115098521113396</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8747179508209229</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.5307477116584778</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1732556968927383</v>
+        <v>0.1183155253529549</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9119360446929932</v>
       </c>
       <c r="V134" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.4844573140144348</v>
       </c>
       <c r="W134" t="n">
-        <v>0.07281169295310974</v>
+        <v>0.1827380657196045</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8794970512390137</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.9455032348632812</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1706249415874481</v>
+        <v>0.004356816411018372</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8631889820098877</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.5297953486442566</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1824697554111481</v>
+        <v>0.1111513152718544</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.859199047088623</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.5137032270431519</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1790814250707626</v>
+        <v>0.1193673610687256</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9220519065856934</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4713113307952881</v>
       </c>
       <c r="W138" t="n">
-        <v>0.01079101487994194</v>
+        <v>0.2031670659780502</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8635120391845703</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4707127809524536</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05712160840630531</v>
+        <v>0.1542912572622299</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9157559871673584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.5062538385391235</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08804135769605637</v>
+        <v>0.1676920056343079</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8579831123352051</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.8837317824363708</v>
       </c>
       <c r="W141" t="n">
-        <v>0.0538606196641922</v>
+        <v>0.0006629939889535308</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5923888683319092</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.9370787143707275</v>
       </c>
       <c r="W142" t="n">
-        <v>0.01635707728564739</v>
+        <v>0.1188110932707787</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5218830108642578</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5349222421646118</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01030680071562529</v>
+        <v>0.0001700215507298708</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5184571743011475</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4818001985549927</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01647552475333214</v>
+        <v>0.001343733863905072</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5126571655273438</v>
       </c>
       <c r="V145" t="n">
-        <v>0.551541268825531</v>
+        <v>0.5309770107269287</v>
       </c>
       <c r="W145" t="n">
-        <v>0.001511973445303738</v>
+        <v>0.0003356167289894074</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5166079998016357</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4993590712547302</v>
       </c>
       <c r="W146" t="n">
-        <v>0.005561427213251591</v>
+        <v>0.000297525548376143</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5250978469848633</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8931934237480164</v>
       </c>
       <c r="W147" t="n">
-        <v>0.009236052632331848</v>
+        <v>0.1354943513870239</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5211939811706543</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.48225337266922</v>
       </c>
       <c r="W148" t="n">
-        <v>0.007253817282617092</v>
+        <v>0.001516371034085751</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5191619396209717</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.883146345615387</v>
       </c>
       <c r="W149" t="n">
-        <v>0.02742894738912582</v>
+        <v>0.132484644651413</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V150" t="n">
-        <v>0.630542516708374</v>
+        <v>0.8872115612030029</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01193021237850189</v>
+        <v>0.1338788270950317</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5128638744354248</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.4956909418106079</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01238232851028442</v>
+        <v>0.0002949096087832004</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5150089263916016</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.885489821434021</v>
       </c>
       <c r="W152" t="n">
-        <v>6.8099849158898e-05</v>
+        <v>0.1372561007738113</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5721690654754639</v>
       </c>
       <c r="V153" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5309537053108215</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01297701988369226</v>
+        <v>0.001698705949820578</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5123817324638367</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02392173931002617</v>
+        <v>3.682413444039412e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5217239856719971</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.5662952065467834</v>
       </c>
       <c r="W155" t="n">
-        <v>0.002227510325610638</v>
+        <v>0.001986593706533313</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5196211338043213</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4839432239532471</v>
       </c>
       <c r="W156" t="n">
-        <v>0.001088287564925849</v>
+        <v>0.001272913301363587</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5197439193725586</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.9469826817512512</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02355561405420303</v>
+        <v>0.1825329661369324</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5163350105285645</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5279404520988464</v>
       </c>
       <c r="W158" t="n">
-        <v>0.01974057033658028</v>
+        <v>0.0001346862700302154</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5179429054260254</v>
       </c>
       <c r="V159" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.5831818580627441</v>
       </c>
       <c r="W159" t="n">
-        <v>0.05222925171256065</v>
+        <v>0.004256120882928371</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5239419937133789</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9258435964584351</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01212595496326685</v>
+        <v>0.1615248918533325</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5159420967102051</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4705492258071899</v>
       </c>
       <c r="W161" t="n">
-        <v>0.00163321231957525</v>
+        <v>0.002060512779280543</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3954710960388184</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.8835266828536987</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06844816356897354</v>
+        <v>0.2381982505321503</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3907070159912109</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.8837979435920715</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06404484808444977</v>
+        <v>0.2431386560201645</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4388830661773682</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6880613565444946</v>
+        <v>1.003786206245422</v>
       </c>
       <c r="W164" t="n">
-        <v>0.06208981946110725</v>
+        <v>0.319115549325943</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4704285264015198</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0002173323300667107</v>
+        <v>0.00597660057246685</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3911409378051758</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4955395460128784</v>
       </c>
       <c r="W166" t="n">
-        <v>0.05125993862748146</v>
+        <v>0.01089906971901655</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3930919170379639</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5010936856269836</v>
       </c>
       <c r="W167" t="n">
-        <v>0.006695040967315435</v>
+        <v>0.01166438218206167</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3961279392242432</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.8828967213630676</v>
       </c>
       <c r="W168" t="n">
-        <v>0.05356566235423088</v>
+        <v>0.2369438409805298</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3914148807525635</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.8773322105407715</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01084252912551165</v>
+        <v>0.2361156493425369</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3975849151611328</v>
       </c>
       <c r="V170" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4934402704238892</v>
       </c>
       <c r="W170" t="n">
-        <v>0.001477818354032934</v>
+        <v>0.00918824877589941</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3904650211334229</v>
       </c>
       <c r="V171" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.5011441707611084</v>
       </c>
       <c r="W171" t="n">
-        <v>0.004214185755699873</v>
+        <v>0.01224987395107746</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3915770053863525</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.4842793345451355</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01213624887168407</v>
+        <v>0.008593722246587276</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3938140869140625</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.5098537802696228</v>
       </c>
       <c r="W173" t="n">
-        <v>0.02438382245600224</v>
+        <v>0.01346521079540253</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3942358493804932</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4812526106834412</v>
       </c>
       <c r="W174" t="n">
-        <v>0.06325249373912811</v>
+        <v>0.007571916561573744</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3874709606170654</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.9221549034118652</v>
       </c>
       <c r="W175" t="n">
-        <v>0.004912394564598799</v>
+        <v>0.2858869135379791</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920910358428955</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5062483549118042</v>
       </c>
       <c r="W176" t="n">
-        <v>0.004379558376967907</v>
+        <v>0.01303189340978861</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4573519229888916</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.4950615167617798</v>
       </c>
       <c r="W177" t="n">
-        <v>0.02788344398140907</v>
+        <v>0.001422013505361974</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3923280239105225</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9777442812919617</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0001810122630558908</v>
+        <v>0.3427121937274933</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.4771491289138794</v>
       </c>
       <c r="W179" t="n">
-        <v>0.02332779578864574</v>
+        <v>0.006801467854529619</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3937029838562012</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4676917791366577</v>
       </c>
       <c r="W180" t="n">
-        <v>0.05310133844614029</v>
+        <v>0.005474342033267021</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4113798141479492</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.9484620690345764</v>
       </c>
       <c r="W181" t="n">
-        <v>0.002149093663319945</v>
+        <v>0.2884573340415955</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8773300647735596</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4652901291847229</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1655887216329575</v>
+        <v>0.1697769016027451</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9169509410858154</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.9839972853660583</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2313011735677719</v>
+        <v>0.004495212342590094</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8726620674133301</v>
       </c>
       <c r="V184" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.8916170001029968</v>
       </c>
       <c r="W184" t="n">
-        <v>0.01844711415469646</v>
+        <v>0.0003592894645407796</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8765661716461182</v>
       </c>
       <c r="V185" t="n">
-        <v>0.505409836769104</v>
+        <v>0.8842260241508484</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1377570182085037</v>
+        <v>5.867334039066918e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8574149608612061</v>
       </c>
       <c r="V186" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5056608915328979</v>
       </c>
       <c r="W186" t="n">
-        <v>0.01528595108538866</v>
+        <v>0.1237309277057648</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8837149143218994</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4984033703804016</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2002291679382324</v>
+        <v>0.1484649926424026</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8662068843841553</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.9093353152275085</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1563517302274704</v>
+        <v>0.001860061543993652</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8682329654693604</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4963663220405579</v>
       </c>
       <c r="W189" t="n">
-        <v>0.04396553710103035</v>
+        <v>0.1382848024368286</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8881559371948242</v>
       </c>
       <c r="V190" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4842393398284912</v>
       </c>
       <c r="W190" t="n">
-        <v>0.004821202717721462</v>
+        <v>0.1631486117839813</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8926899433135986</v>
       </c>
       <c r="V191" t="n">
-        <v>0.624763011932373</v>
+        <v>0.9016155600547791</v>
       </c>
       <c r="W191" t="n">
-        <v>0.07178483903408051</v>
+        <v>7.966663542902097e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8605639934539795</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.4704123139381409</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1397192478179932</v>
+        <v>0.1522183269262314</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8759949207305908</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5018662214279175</v>
       </c>
       <c r="W193" t="n">
-        <v>0.09276104718446732</v>
+        <v>0.1399722844362259</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9239978790283203</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.8669981956481934</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2321101874113083</v>
+        <v>0.003248963970690966</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8740930557250977</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.9901556372642517</v>
       </c>
       <c r="W195" t="n">
-        <v>0.09386112540960312</v>
+        <v>0.01347052305936813</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8621790409088135</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5217238664627075</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1569559574127197</v>
+        <v>0.1159097254276276</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8700771331787109</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4683445692062378</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1728691309690475</v>
+        <v>0.1613890528678894</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9252641201019287</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.9322817921638489</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2393590658903122</v>
+        <v>4.924772292724811e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8725690841674805</v>
       </c>
       <c r="V199" t="n">
-        <v>0.471180647611618</v>
+        <v>0.9352409839630127</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1611126810312271</v>
+        <v>0.003927766811102629</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.880234956741333</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4842392206192017</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1807136386632919</v>
+        <v>0.1568126231431961</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>1.401460886001587</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.9521558880805969</v>
       </c>
       <c r="W201" t="n">
-        <v>0.7200552225112915</v>
+        <v>0.2018749862909317</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5744049549102783</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.4683496356010437</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01009571366012096</v>
+        <v>0.0112477308139205</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5393190383911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4935980439186096</v>
       </c>
       <c r="W203" t="n">
-        <v>0.08055049180984497</v>
+        <v>0.002090409398078918</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5370819568634033</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4989880919456482</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01021392550319433</v>
+        <v>0.001451142597943544</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5194170475006104</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4934686422348022</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01094663701951504</v>
+        <v>0.0006733197369612753</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5141060352325439</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.8850767016410828</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0002389420114923269</v>
+        <v>0.1376192420721054</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5426201820373535</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.583014190196991</v>
       </c>
       <c r="W207" t="n">
-        <v>0.007806159090250731</v>
+        <v>0.001631675870157778</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5196869373321533</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.8698645234107971</v>
       </c>
       <c r="W208" t="n">
-        <v>0.001012887922115624</v>
+        <v>0.1226243451237679</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5132639408111572</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.5830795764923096</v>
       </c>
       <c r="W209" t="n">
-        <v>0.001487968023866415</v>
+        <v>0.004874222911894321</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5155079364776611</v>
       </c>
       <c r="V210" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.5144985914230347</v>
       </c>
       <c r="W210" t="n">
-        <v>0.003635381115600467</v>
+        <v>1.018777425088047e-06</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5219659805297852</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4959152340888977</v>
       </c>
       <c r="W211" t="n">
-        <v>0.007458143401890993</v>
+        <v>0.0006786413723602891</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V212" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4704482555389404</v>
       </c>
       <c r="W212" t="n">
-        <v>0.08436984568834305</v>
+        <v>0.002616818761453032</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5533528327941895</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.5831720232963562</v>
       </c>
       <c r="W213" t="n">
-        <v>0.007620395626872778</v>
+        <v>0.0008891841280274093</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5215380191802979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.556709885597229</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01836485788226128</v>
+        <v>0.001237060176208615</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5205159187316895</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.4824361205101013</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01951277442276478</v>
+        <v>0.001450070994906127</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.521075963973999</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.5309684276580811</v>
       </c>
       <c r="W216" t="n">
-        <v>0.007233211304992437</v>
+        <v>9.786083683138713e-05</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5170080661773682</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5199829339981079</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01955892890691757</v>
+        <v>8.849838195601478e-06</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5734741687774658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4800372123718262</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004932605661451817</v>
+        <v>0.008730464614927769</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V219" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5006793141365051</v>
       </c>
       <c r="W219" t="n">
-        <v>0.01939825154840946</v>
+        <v>0.0004378051380626857</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.522554874420166</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4964957237243652</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01062726322561502</v>
+        <v>0.000679079326801002</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5203990936279297</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.9222513437271118</v>
       </c>
       <c r="W221" t="n">
-        <v>0.005137784406542778</v>
+        <v>0.1614852249622345</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3890118598937988</v>
       </c>
       <c r="V222" t="n">
-        <v>0.618610143661499</v>
+        <v>0.934931218624115</v>
       </c>
       <c r="W222" t="n">
-        <v>0.05271537229418755</v>
+        <v>0.2980279326438904</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3902950286865234</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.8844711780548096</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0443560816347599</v>
+        <v>0.2442100644111633</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4469938278198242</v>
       </c>
       <c r="V224" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.9022479653358459</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03196031227707863</v>
+        <v>0.2072563320398331</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.392413854598999</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5315243005752563</v>
       </c>
       <c r="W225" t="n">
-        <v>0.00437528733164072</v>
+        <v>0.01935171708464622</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.390031099319458</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.5051072239875793</v>
       </c>
       <c r="W226" t="n">
-        <v>0.05233168601989746</v>
+        <v>0.01324251480400562</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3930361270904541</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.9073027372360229</v>
       </c>
       <c r="W227" t="n">
-        <v>0.001846869243308902</v>
+        <v>0.2644701600074768</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.39192795753479</v>
       </c>
       <c r="V228" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5310286283493042</v>
       </c>
       <c r="W228" t="n">
-        <v>0.006856595166027546</v>
+        <v>0.0193489957600832</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3957130908966064</v>
       </c>
       <c r="V229" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9336247444152832</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1789853572845459</v>
+        <v>0.2893489599227905</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933560848236084</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5818081498146057</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03073886781930923</v>
+        <v>0.03551417961716652</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.392982006072998</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4694794416427612</v>
       </c>
       <c r="W231" t="n">
-        <v>0.03089288808405399</v>
+        <v>0.005851857829838991</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4005930423736572</v>
       </c>
       <c r="V232" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.5196172595024109</v>
       </c>
       <c r="W232" t="n">
-        <v>0.05049313232302666</v>
+        <v>0.0141667639836669</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3939211368560791</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4808183312416077</v>
       </c>
       <c r="W233" t="n">
-        <v>0.03039884567260742</v>
+        <v>0.007551122456789017</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3942689895629883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5133453011512756</v>
       </c>
       <c r="W234" t="n">
-        <v>0.003519304795190692</v>
+        <v>0.0141791682690382</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3959071636199951</v>
       </c>
       <c r="V235" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5308299660682678</v>
       </c>
       <c r="W235" t="n">
-        <v>0.06125315278768539</v>
+        <v>0.01820416189730167</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3949201107025146</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.8859822154045105</v>
       </c>
       <c r="W236" t="n">
-        <v>0.05110879614949226</v>
+        <v>0.2411419898271561</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3929429054260254</v>
       </c>
       <c r="V237" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5044211745262146</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02511339448392391</v>
+        <v>0.01242740452289581</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V238" t="n">
-        <v>0.816550612449646</v>
+        <v>0.495531439781189</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1825097799301147</v>
+        <v>0.01127684023231268</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3937878608703613</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5314785242080688</v>
       </c>
       <c r="W239" t="n">
-        <v>0.003580778371542692</v>
+        <v>0.01895871944725513</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3973958492279053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5044136047363281</v>
       </c>
       <c r="W240" t="n">
-        <v>0.04913786798715591</v>
+        <v>0.01145279966294765</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3936131000518799</v>
       </c>
       <c r="V241" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.9421648979187012</v>
       </c>
       <c r="W241" t="n">
-        <v>0.1790456920862198</v>
+        <v>0.3009090721607208</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.981956958770752</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5065601468086243</v>
       </c>
       <c r="W242" t="n">
-        <v>0.230415016412735</v>
+        <v>0.2260021269321442</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.910973072052002</v>
       </c>
       <c r="V243" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4985845685005188</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2050125747919083</v>
+        <v>0.1700642704963684</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8742811679840088</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4987563490867615</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1682266294956207</v>
+        <v>0.141018882393837</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8757209777832031</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5829601883888245</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1031218245625496</v>
+        <v>0.08570887893438339</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9272799491882324</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.9364428520202637</v>
       </c>
       <c r="W246" t="n">
-        <v>0.01227477099746466</v>
+        <v>8.39587883092463e-05</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8690290451049805</v>
       </c>
       <c r="V247" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5306577086448669</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1586915105581284</v>
+        <v>0.1144951581954956</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8619790077209473</v>
       </c>
       <c r="V248" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.4712516665458679</v>
       </c>
       <c r="W248" t="n">
-        <v>0.01643849350512028</v>
+        <v>0.1526678502559662</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8766250610351562</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5238839387893677</v>
       </c>
       <c r="W249" t="n">
-        <v>0.16275455057621</v>
+        <v>0.1244262978434563</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.926807165145874</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.4681351780891418</v>
       </c>
       <c r="W250" t="n">
-        <v>0.09605798870325089</v>
+        <v>0.2103799879550934</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8749849796295166</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.496682345867157</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1373938322067261</v>
+        <v>0.1431128829717636</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.873927116394043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.946322500705719</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1598044186830521</v>
+        <v>0.005241091828793287</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9045891761779785</v>
       </c>
       <c r="V253" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.4682315587997437</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2199299335479736</v>
+        <v>0.1904079765081406</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9227340221405029</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.9117681384086609</v>
       </c>
       <c r="W254" t="n">
-        <v>0.01137470453977585</v>
+        <v>0.0001202506027766503</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8764941692352295</v>
       </c>
       <c r="V255" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5316535234451294</v>
       </c>
       <c r="W255" t="n">
-        <v>0.02289925143122673</v>
+        <v>0.1189150735735893</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9018480777740479</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5016864538192749</v>
       </c>
       <c r="W256" t="n">
-        <v>0.217253103852272</v>
+        <v>0.1601293236017227</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8710629940032959</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5082289576530457</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1017624512314796</v>
+        <v>0.1316485404968262</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9148938655853271</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.5830186009407043</v>
       </c>
       <c r="W258" t="n">
-        <v>0.0861431285738945</v>
+        <v>0.1101411879062653</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8792588710784912</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.9329673647880554</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1650915443897247</v>
+        <v>0.002884602406993508</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5077872276306152</v>
       </c>
       <c r="W260" t="n">
-        <v>0.06699270009994507</v>
+        <v>0.1265194416046143</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8691620826721191</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5151626467704773</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1025232821702957</v>
+        <v>0.1253156065940857</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5913510322570801</v>
       </c>
       <c r="V262" t="n">
-        <v>0.390147477388382</v>
+        <v>0.8838520646095276</v>
       </c>
       <c r="W262" t="n">
-        <v>0.04048287123441696</v>
+        <v>0.08555685728788376</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5278339385986328</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4692977070808411</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008479214273393154</v>
+        <v>0.003426490351557732</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5258190631866455</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4840877652168274</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01823880895972252</v>
+        <v>0.001741501269862056</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5403730869293213</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5144235491752625</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0369088426232338</v>
+        <v>0.0006733785266987979</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5224969387054443</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4984868168830872</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01113409548997879</v>
+        <v>0.0005764859379269183</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5204629898071289</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.886094868183136</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01104333624243736</v>
+        <v>0.1336866766214371</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5326411724090576</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4705306887626648</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0008381701190955937</v>
+        <v>0.003857712261378765</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.526104211807251</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.5013221502304077</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00299401581287384</v>
+        <v>0.0006141506019048393</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5166599750518799</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5198432207107544</v>
       </c>
       <c r="W270" t="n">
-        <v>0.001256549032405019</v>
+        <v>1.013305336527992e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5227890014648438</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.9551883339881897</v>
       </c>
       <c r="W271" t="n">
-        <v>0.004116569180041552</v>
+        <v>0.1869691759347916</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5425238609313965</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.9103663563728333</v>
       </c>
       <c r="W272" t="n">
-        <v>0.005882213823497295</v>
+        <v>0.135308101773262</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5768120288848877</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4778117537498474</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01259751338511705</v>
+        <v>0.009801054373383522</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5250701904296875</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.9221877455711365</v>
       </c>
       <c r="W274" t="n">
-        <v>0.08228106051683426</v>
+        <v>0.1577023565769196</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5311338901519775</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4788563847541809</v>
       </c>
       <c r="W275" t="n">
-        <v>0.005364313255995512</v>
+        <v>0.002732937457039952</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.8992570638656616</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01869951374828815</v>
+        <v>0.1428386867046356</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5218639373779297</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.557526171207428</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002126657404005527</v>
+        <v>0.001271794899366796</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5229361057281494</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.519364595413208</v>
       </c>
       <c r="W278" t="n">
-        <v>0.01988799311220646</v>
+        <v>1.275568592973286e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.522878885269165</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.9214114546775818</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001264936290681362</v>
+        <v>0.1588282138109207</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5235879421234131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.556353747844696</v>
       </c>
       <c r="W280" t="n">
-        <v>0.001378964283503592</v>
+        <v>0.001073598046787083</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5196161270141602</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4994016885757446</v>
       </c>
       <c r="W281" t="n">
-        <v>0.0001188650276162662</v>
+        <v>0.0004086235130671412</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5185645222663879</v>
       </c>
       <c r="W282" t="n">
-        <v>0.009850294329226017</v>
+        <v>0.01364026498049498</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.398914098739624</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.9290834069252014</v>
       </c>
       <c r="W283" t="n">
-        <v>0.05149956047534943</v>
+        <v>0.28107950091362</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4474029541015625</v>
       </c>
       <c r="V284" t="n">
-        <v>0.56879723072052</v>
+        <v>0.4712897539138794</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01473657041788101</v>
+        <v>0.0005705791991204023</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.39711594581604</v>
       </c>
       <c r="V285" t="n">
-        <v>0.43533855676651</v>
+        <v>0.9019710421562195</v>
       </c>
       <c r="W285" t="n">
-        <v>0.001460967934690416</v>
+        <v>0.2548786699771881</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3987820148468018</v>
       </c>
       <c r="V286" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4991201758384705</v>
       </c>
       <c r="W286" t="n">
-        <v>0.114105798304081</v>
+        <v>0.01006774697452784</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3974170684814453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5278292894363403</v>
       </c>
       <c r="W287" t="n">
-        <v>0.02822473458945751</v>
+        <v>0.01700734719634056</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3986580371856689</v>
       </c>
       <c r="V288" t="n">
-        <v>0.436014860868454</v>
+        <v>0.8839653730392456</v>
       </c>
       <c r="W288" t="n">
-        <v>0.001395532279275358</v>
+        <v>0.2355232089757919</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4135520458221436</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5008328557014465</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1625586301088333</v>
+        <v>0.007617939729243517</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3954870700836182</v>
       </c>
       <c r="V290" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5192986726760864</v>
       </c>
       <c r="W290" t="n">
-        <v>0.06155871972441673</v>
+        <v>0.01532931253314018</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3995430469512939</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9080618619918823</v>
       </c>
       <c r="W291" t="n">
-        <v>0.02559760585427284</v>
+        <v>0.2585913836956024</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4001998901367188</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.5307440161705017</v>
       </c>
       <c r="W292" t="n">
-        <v>0.04875608161091805</v>
+        <v>0.01704176887869835</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3985741138458252</v>
       </c>
       <c r="V293" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5050739645957947</v>
       </c>
       <c r="W293" t="n">
-        <v>0.02655914612114429</v>
+        <v>0.01134221814572811</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3945510387420654</v>
       </c>
       <c r="V294" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5310062766075134</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01218088809400797</v>
+        <v>0.01862003281712532</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.403709888458252</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.9272332191467285</v>
       </c>
       <c r="W295" t="n">
-        <v>0.005304242484271526</v>
+        <v>0.2740766704082489</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.5834359526634216</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01189241744577885</v>
+        <v>0.03554883226752281</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4047031402587891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4958005547523499</v>
       </c>
       <c r="W297" t="n">
-        <v>0.005784121342003345</v>
+        <v>0.008298738859593868</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.39634108543396</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.5309634804725647</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001574767637066543</v>
+        <v>0.01812318898737431</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3985579013824463</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5305530428886414</v>
       </c>
       <c r="W299" t="n">
-        <v>0.06009815633296967</v>
+        <v>0.01742271706461906</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3948500156402588</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4706165194511414</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0002896961814258248</v>
+        <v>0.005740562919527292</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982090950012207</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.5306639671325684</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01063982583582401</v>
+        <v>0.01754429377615452</v>
       </c>
     </row>
     <row r="302" spans="1:23">
